--- a/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68450A37-0EF6-4E0C-8980-515C20A78D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05156DDE-A555-4EFC-822C-30FD067FFC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E21F521B-0D22-4C1A-970A-2A6139547754}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97CBC08F-9325-491C-9893-20C16153F0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="387">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,12%</t>
+    <t>7,23%</t>
   </si>
   <si>
     <t>2,34%</t>
@@ -89,7 +89,7 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>6,28%</t>
+    <t>7,08%</t>
   </si>
   <si>
     <t>2,49%</t>
@@ -98,7 +98,7 @@
     <t>0,89%</t>
   </si>
   <si>
-    <t>5,15%</t>
+    <t>5,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,35%</t>
   </si>
   <si>
-    <t>92,88%</t>
+    <t>92,77%</t>
   </si>
   <si>
     <t>99,13%</t>
@@ -116,7 +116,7 @@
     <t>97,66%</t>
   </si>
   <si>
-    <t>93,72%</t>
+    <t>92,92%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -125,7 +125,7 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>94,85%</t>
+    <t>94,82%</t>
   </si>
   <si>
     <t>99,11%</t>
@@ -140,1078 +140,1066 @@
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>3,51%</t>
   </si>
   <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
     <t>2,59%</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>97,04%</t>
   </si>
   <si>
     <t>99,0%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFF0013-85B6-4F23-BB76-F23DE4E9A2BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E381B8C-F798-47C5-8441-D3D87D4BB92E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1935,10 +1923,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1953,13 +1941,13 @@
         <v>560338</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -1968,13 +1956,13 @@
         <v>552388</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -1983,13 +1971,13 @@
         <v>1112725</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2045,7 +2033,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2057,13 +2045,13 @@
         <v>25913</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2072,13 +2060,13 @@
         <v>45285</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -2087,13 +2075,13 @@
         <v>71198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,13 +2096,13 @@
         <v>935887</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H11" s="7">
         <v>867</v>
@@ -2123,13 +2111,13 @@
         <v>923108</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1738</v>
@@ -2138,13 +2126,13 @@
         <v>1858995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2188,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2212,13 +2200,13 @@
         <v>17059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -2227,13 +2215,13 @@
         <v>41546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2242,13 +2230,13 @@
         <v>58606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2251,13 @@
         <v>661450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>654</v>
@@ -2278,13 +2266,13 @@
         <v>642295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1278</v>
@@ -2293,13 +2281,13 @@
         <v>1303744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,7 +2343,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2367,13 +2355,13 @@
         <v>31969</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -2382,13 +2370,13 @@
         <v>58855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2397,13 +2385,13 @@
         <v>90824</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2406,13 @@
         <v>910253</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -2433,13 +2421,13 @@
         <v>979757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>1902</v>
@@ -2448,13 +2436,13 @@
         <v>1890010</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2510,13 @@
         <v>95292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -2537,13 +2525,13 @@
         <v>171532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -2552,13 +2540,13 @@
         <v>266824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2570,16 +2558,16 @@
         <v>3115</v>
       </c>
       <c r="D20" s="7">
-        <v>3180233</v>
+        <v>3180234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H20" s="7">
         <v>3133</v>
@@ -2588,28 +2576,28 @@
         <v>3207666</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>6248</v>
       </c>
       <c r="N20" s="7">
-        <v>6387898</v>
+        <v>6387899</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,7 +2609,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2651,7 +2639,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2665,7 +2653,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2686,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AF87D1-5F9C-488B-87E7-E84373150FD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B0F79C-44BB-4969-B330-BC06A148F086}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2703,7 +2691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2810,13 +2798,13 @@
         <v>1931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2825,13 +2813,13 @@
         <v>8140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2840,13 +2828,13 @@
         <v>10070</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2849,13 @@
         <v>113019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -2876,13 +2864,13 @@
         <v>103765</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -2891,13 +2879,13 @@
         <v>216785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2953,13 @@
         <v>10503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2980,13 +2968,13 @@
         <v>28910</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -2995,13 +2983,13 @@
         <v>39413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3004,13 @@
         <v>575311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -3031,13 +3019,13 @@
         <v>551497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>1060</v>
@@ -3046,13 +3034,13 @@
         <v>1126807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,7 +3096,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3120,13 +3108,13 @@
         <v>24239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -3135,13 +3123,13 @@
         <v>65423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3150,13 +3138,13 @@
         <v>89662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,28 +3159,28 @@
         <v>993708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
         <v>876</v>
       </c>
       <c r="I11" s="7">
-        <v>962353</v>
+        <v>962352</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -3201,13 +3189,13 @@
         <v>1956060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3222,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>1027775</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3263,7 +3251,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3275,13 +3263,13 @@
         <v>14047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3290,13 +3278,13 @@
         <v>36820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3305,13 +3293,13 @@
         <v>50868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3314,13 @@
         <v>742491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -3341,13 +3329,13 @@
         <v>739463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>1347</v>
@@ -3356,13 +3344,13 @@
         <v>1481953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3406,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3430,13 +3418,13 @@
         <v>20609</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -3445,13 +3433,13 @@
         <v>67225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3460,13 +3448,13 @@
         <v>87834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,13 +3469,13 @@
         <v>923330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H17" s="7">
         <v>937</v>
@@ -3496,13 +3484,13 @@
         <v>981538</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>1826</v>
@@ -3511,13 +3499,13 @@
         <v>1904868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3573,13 @@
         <v>71329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
@@ -3600,13 +3588,13 @@
         <v>206519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -3615,13 +3603,13 @@
         <v>277847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3624,13 @@
         <v>3347859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>3095</v>
@@ -3651,13 +3639,13 @@
         <v>3338615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M20" s="7">
         <v>6234</v>
@@ -3666,13 +3654,13 @@
         <v>6686475</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,7 +3716,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3749,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FDFBBC3-3735-4521-9129-FFFCFA44BD25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BA0CF9-49E1-4123-9A37-AC5597F99084}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3766,7 +3754,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3873,13 +3861,13 @@
         <v>4108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3888,13 +3876,13 @@
         <v>5124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3903,13 +3891,13 @@
         <v>9232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3912,13 @@
         <v>112438</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3939,13 +3927,13 @@
         <v>108236</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -3954,13 +3942,13 @@
         <v>220674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4016,13 @@
         <v>4648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4043,13 +4031,13 @@
         <v>21586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4058,13 +4046,13 @@
         <v>26233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4067,13 @@
         <v>553606</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>532</v>
@@ -4094,13 +4082,13 @@
         <v>537893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>1066</v>
@@ -4109,13 +4097,13 @@
         <v>1091500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,7 +4159,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4183,13 +4171,13 @@
         <v>15135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4198,13 +4186,13 @@
         <v>40617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -4213,13 +4201,13 @@
         <v>55753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4222,13 @@
         <v>1007296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4249,13 +4237,13 @@
         <v>1002296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M11" s="7">
         <v>1876</v>
@@ -4264,13 +4252,13 @@
         <v>2009591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,7 +4314,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4338,13 +4326,13 @@
         <v>13250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4353,13 +4341,13 @@
         <v>29733</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4368,13 +4356,13 @@
         <v>42984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4377,13 @@
         <v>746302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -4404,13 +4392,13 @@
         <v>755278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -4419,13 +4407,13 @@
         <v>1501579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,7 +4469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4493,13 +4481,13 @@
         <v>8054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4508,13 +4496,13 @@
         <v>37498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -4523,13 +4511,13 @@
         <v>45551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,13 +4532,13 @@
         <v>929513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -4559,13 +4547,13 @@
         <v>1006281</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>1851</v>
@@ -4574,13 +4562,13 @@
         <v>1935795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4636,13 @@
         <v>45195</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4663,13 +4651,13 @@
         <v>134558</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -4678,13 +4666,13 @@
         <v>179753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4699,13 +4687,13 @@
         <v>3349155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H20" s="7">
         <v>3219</v>
@@ -4714,13 +4702,13 @@
         <v>3409984</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>6404</v>
@@ -4729,13 +4717,13 @@
         <v>6759139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>305</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,7 +4779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4812,7 +4800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF28FF4-2815-4A04-8AB3-B6B79EDC4E92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C3233D-2367-42DC-B060-E9C7C082BA69}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4829,7 +4817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4936,13 +4924,13 @@
         <v>460</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4951,13 +4939,13 @@
         <v>4949</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4966,13 +4954,13 @@
         <v>5409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4975,13 @@
         <v>101522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -5002,13 +4990,13 @@
         <v>125427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5017,13 +5005,13 @@
         <v>226949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5079,13 @@
         <v>15929</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -5106,13 +5094,13 @@
         <v>42145</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -5121,13 +5109,13 @@
         <v>58074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5130,13 @@
         <v>533373</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -5157,13 +5145,13 @@
         <v>550817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>1511</v>
@@ -5172,7 +5160,7 @@
         <v>1084190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>335</v>
@@ -5234,7 +5222,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5246,7 +5234,7 @@
         <v>18241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>337</v>
@@ -5279,10 +5267,10 @@
         <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5285,13 @@
         <v>1021007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H11" s="7">
         <v>1431</v>
@@ -5312,13 +5300,13 @@
         <v>1008275</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>2373</v>
@@ -5327,13 +5315,13 @@
         <v>2029282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,7 +5377,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5401,13 +5389,13 @@
         <v>12731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5416,13 +5404,13 @@
         <v>32259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -5431,13 +5419,13 @@
         <v>44990</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5440,13 @@
         <v>714970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>355</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
@@ -5467,13 +5455,13 @@
         <v>840544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>110</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>1657</v>
@@ -5482,13 +5470,13 @@
         <v>1555514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5556,13 +5544,13 @@
         <v>18515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>124</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -5571,13 +5559,13 @@
         <v>80988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -5586,13 +5574,13 @@
         <v>99503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,13 +5595,13 @@
         <v>946133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>134</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>1444</v>
@@ -5622,13 +5610,13 @@
         <v>1065315</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>2425</v>
@@ -5637,13 +5625,13 @@
         <v>2011448</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,25 +5702,25 @@
         <v>377</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>335</v>
       </c>
       <c r="I19" s="7">
-        <v>211540</v>
+        <v>211539</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M19" s="7">
         <v>416</v>
@@ -5741,13 +5729,13 @@
         <v>277415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>167</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5750,13 @@
         <v>3317006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>385</v>
+        <v>184</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>5023</v>
@@ -5777,28 +5765,28 @@
         <v>3590379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>8315</v>
       </c>
       <c r="N20" s="7">
-        <v>6907385</v>
+        <v>6907386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,7 +5813,7 @@
         <v>5358</v>
       </c>
       <c r="I21" s="7">
-        <v>3801919</v>
+        <v>3801918</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5840,7 +5828,7 @@
         <v>8731</v>
       </c>
       <c r="N21" s="7">
-        <v>7184800</v>
+        <v>7184801</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5854,7 +5842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05156DDE-A555-4EFC-822C-30FD067FFC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D4F745E-266B-4FD8-8035-C4F10EEEE7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{97CBC08F-9325-491C-9893-20C16153F0A1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93B2DD04-A765-483A-B151-8EDE8A6A2757}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="393">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,1117 +77,1135 @@
     <t>2,65%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
   </si>
   <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>96,56%</t>
   </si>
   <si>
-    <t>Capitales</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
     <t>98,49%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
   </si>
   <si>
     <t>94,44%</t>
@@ -1611,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E381B8C-F798-47C5-8441-D3D87D4BB92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB0908F-EF5E-4DB5-8478-65705B901B80}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1923,10 +1941,10 @@
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1959,13 @@
         <v>560338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>544</v>
@@ -1956,13 +1974,13 @@
         <v>552388</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1103</v>
@@ -1971,13 +1989,13 @@
         <v>1112725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2033,7 +2051,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2045,13 +2063,13 @@
         <v>25913</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2060,13 +2078,13 @@
         <v>45285</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -2075,13 +2093,13 @@
         <v>71198</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2114,13 @@
         <v>935887</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>867</v>
@@ -2111,13 +2129,13 @@
         <v>923108</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1738</v>
@@ -2126,13 +2144,13 @@
         <v>1858995</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,7 +2206,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2200,13 +2218,13 @@
         <v>17059</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>42</v>
@@ -2215,13 +2233,13 @@
         <v>41546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2230,13 +2248,13 @@
         <v>58606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2269,13 @@
         <v>661450</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>654</v>
@@ -2266,13 +2284,13 @@
         <v>642295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1278</v>
@@ -2281,13 +2299,13 @@
         <v>1303744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,7 +2361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2355,13 +2373,13 @@
         <v>31969</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -2370,13 +2388,13 @@
         <v>58855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2385,13 +2403,13 @@
         <v>90824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2424,13 @@
         <v>910253</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>943</v>
@@ -2421,13 +2439,13 @@
         <v>979757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1902</v>
@@ -2436,13 +2454,13 @@
         <v>1890010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2528,13 @@
         <v>95292</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>164</v>
@@ -2525,13 +2543,13 @@
         <v>171532</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>262</v>
@@ -2540,13 +2558,13 @@
         <v>266824</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2558,16 +2576,16 @@
         <v>3115</v>
       </c>
       <c r="D20" s="7">
-        <v>3180234</v>
+        <v>3180233</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3133</v>
@@ -2576,13 +2594,13 @@
         <v>3207666</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6248</v>
@@ -2591,13 +2609,13 @@
         <v>6387899</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2627,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2653,7 +2671,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2674,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B0F79C-44BB-4969-B330-BC06A148F086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FDB-5CAC-45E4-A4BA-1491D72294DE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2691,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2798,13 +2816,13 @@
         <v>1931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2813,13 +2831,13 @@
         <v>8140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2828,13 +2846,13 @@
         <v>10070</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2867,13 @@
         <v>113019</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -2864,13 +2882,13 @@
         <v>103765</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -2879,13 +2897,13 @@
         <v>216785</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2971,13 @@
         <v>10503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2968,13 +2986,13 @@
         <v>28910</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -2983,13 +3001,13 @@
         <v>39413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3022,13 @@
         <v>575311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -3019,13 +3037,13 @@
         <v>551497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1060</v>
@@ -3034,13 +3052,13 @@
         <v>1126807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,7 +3114,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3108,13 +3126,13 @@
         <v>24239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -3123,13 +3141,13 @@
         <v>65423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3138,13 +3156,13 @@
         <v>89662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,13 +3177,13 @@
         <v>993708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H11" s="7">
         <v>876</v>
@@ -3174,13 +3192,13 @@
         <v>962352</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>169</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -3189,13 +3207,13 @@
         <v>1956060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,7 +3269,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3263,13 +3281,13 @@
         <v>14047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3278,13 +3296,13 @@
         <v>36820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3293,13 +3311,13 @@
         <v>50868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3332,13 @@
         <v>742491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -3329,13 +3347,13 @@
         <v>739463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1347</v>
@@ -3344,13 +3362,13 @@
         <v>1481953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,7 +3424,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3418,13 +3436,13 @@
         <v>20609</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -3433,13 +3451,13 @@
         <v>67225</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3448,13 +3466,13 @@
         <v>87834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3469,13 +3487,13 @@
         <v>923330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>937</v>
@@ -3484,13 +3502,13 @@
         <v>981538</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>1826</v>
@@ -3499,13 +3517,13 @@
         <v>1904868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3591,13 @@
         <v>71329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
@@ -3588,13 +3606,13 @@
         <v>206519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -3603,13 +3621,13 @@
         <v>277847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,13 +3642,13 @@
         <v>3347859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>3095</v>
@@ -3639,13 +3657,13 @@
         <v>3338615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6234</v>
@@ -3654,13 +3672,13 @@
         <v>6686475</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,7 +3734,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BA0CF9-49E1-4123-9A37-AC5597F99084}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925B9401-1FC9-4C36-9AC9-9D9B922E8947}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3754,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3861,13 +3879,13 @@
         <v>4108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3879,10 +3897,10 @@
         <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3891,13 +3909,13 @@
         <v>9232</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,13 +3930,13 @@
         <v>112438</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3927,13 +3945,13 @@
         <v>108236</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>219</v>
@@ -3942,13 +3960,13 @@
         <v>220674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4034,13 @@
         <v>4648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4031,13 +4049,13 @@
         <v>21586</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4046,13 +4064,13 @@
         <v>26233</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4085,13 @@
         <v>553606</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>532</v>
@@ -4082,13 +4100,13 @@
         <v>537893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>1066</v>
@@ -4097,13 +4115,13 @@
         <v>1091500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>93</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>61</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,7 +4177,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4171,13 +4189,13 @@
         <v>15135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4186,13 +4204,13 @@
         <v>40617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -4201,13 +4219,13 @@
         <v>55753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4240,13 @@
         <v>1007296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4237,13 +4255,13 @@
         <v>1002296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1876</v>
@@ -4252,13 +4270,13 @@
         <v>2009591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,7 +4332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4326,13 +4344,13 @@
         <v>13250</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4341,13 +4359,13 @@
         <v>29733</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4356,13 +4374,13 @@
         <v>42984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4377,13 +4395,13 @@
         <v>746302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -4392,13 +4410,13 @@
         <v>755278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -4407,13 +4425,13 @@
         <v>1501579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,7 +4487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4481,13 +4499,13 @@
         <v>8054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4496,13 +4514,13 @@
         <v>37498</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -4511,13 +4529,13 @@
         <v>45551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4550,13 @@
         <v>929513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -4547,13 +4565,13 @@
         <v>1006281</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>1851</v>
@@ -4562,13 +4580,13 @@
         <v>1935795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4654,13 @@
         <v>45195</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4651,13 +4669,13 @@
         <v>134558</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -4666,13 +4684,13 @@
         <v>179753</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>298</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4705,13 @@
         <v>3349155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H20" s="7">
         <v>3219</v>
@@ -4702,13 +4720,13 @@
         <v>3409984</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>6404</v>
@@ -4717,13 +4735,13 @@
         <v>6759139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,7 +4797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4800,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C3233D-2367-42DC-B060-E9C7C082BA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA99552F-C8F7-4D82-8C58-920CA5FD8BF2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4817,7 +4835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4924,13 +4942,13 @@
         <v>460</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4939,13 +4957,13 @@
         <v>4949</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4954,13 +4972,13 @@
         <v>5409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4993,13 @@
         <v>101522</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>232</v>
@@ -4990,13 +5008,13 @@
         <v>125427</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5005,13 +5023,13 @@
         <v>226949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5097,13 @@
         <v>15929</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -5094,13 +5112,13 @@
         <v>42145</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -5109,13 +5127,13 @@
         <v>58074</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5130,13 +5148,13 @@
         <v>533373</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -5145,13 +5163,13 @@
         <v>550817</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>1511</v>
@@ -5160,13 +5178,13 @@
         <v>1084190</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,7 +5240,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5234,13 +5252,13 @@
         <v>18241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5249,13 +5267,13 @@
         <v>51199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -5264,7 +5282,7 @@
         <v>69440</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
@@ -5285,13 +5303,13 @@
         <v>1021007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H11" s="7">
         <v>1431</v>
@@ -5300,13 +5318,13 @@
         <v>1008275</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M11" s="7">
         <v>2373</v>
@@ -5315,10 +5333,10 @@
         <v>2029282</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -5377,7 +5395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5389,13 +5407,13 @@
         <v>12731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5404,13 +5422,13 @@
         <v>32259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -5419,13 +5437,13 @@
         <v>44990</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>354</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5458,13 @@
         <v>714970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
@@ -5455,13 +5473,13 @@
         <v>840544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M14" s="7">
         <v>1657</v>
@@ -5470,13 +5488,13 @@
         <v>1555514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>257</v>
+        <v>362</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,7 +5550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5544,13 +5562,13 @@
         <v>18515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>124</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -5559,13 +5577,13 @@
         <v>80988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -5574,13 +5592,13 @@
         <v>99503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,13 +5613,13 @@
         <v>946133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>1444</v>
@@ -5610,13 +5628,13 @@
         <v>1065315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M17" s="7">
         <v>2425</v>
@@ -5625,13 +5643,13 @@
         <v>2011448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5717,13 @@
         <v>65876</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>236</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>174</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>335</v>
@@ -5714,13 +5732,13 @@
         <v>211539</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>416</v>
@@ -5729,13 +5747,13 @@
         <v>277415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5768,13 @@
         <v>3317006</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>184</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>5023</v>
@@ -5765,13 +5783,13 @@
         <v>3590379</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>8315</v>
@@ -5780,13 +5798,13 @@
         <v>6907386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>83</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +5860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D4F745E-266B-4FD8-8035-C4F10EEEE7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D773FB5E-07DB-441E-926C-84DEE89EE361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93B2DD04-A765-483A-B151-8EDE8A6A2757}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28E7CB84-094D-403A-B61B-F1A8450D2071}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="391">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,1153 +71,1147 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
     <t>0,86%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>97,39%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
   </si>
   <si>
     <t>98,18%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
   </si>
   <si>
     <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB0908F-EF5E-4DB5-8478-65705B901B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ABADC3-DC49-4E96-BA0F-C869FCDC92C5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2388,13 +2382,13 @@
         <v>58855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
@@ -2403,7 +2397,7 @@
         <v>90824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>95</v>
@@ -2439,13 +2433,13 @@
         <v>979757</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1902</v>
@@ -2454,7 +2448,7 @@
         <v>1890010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>103</v>
@@ -2606,7 +2600,7 @@
         <v>6248</v>
       </c>
       <c r="N20" s="7">
-        <v>6387899</v>
+        <v>6387898</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>120</v>
@@ -2657,7 +2651,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2692,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12331FDB-5CAC-45E4-A4BA-1491D72294DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4357AB-161F-4DFE-9017-D4F55A650AEC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,13 +2965,13 @@
         <v>10503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -2986,13 +2980,13 @@
         <v>28910</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>37</v>
@@ -3001,13 +2995,13 @@
         <v>39413</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3016,13 @@
         <v>575311</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>520</v>
@@ -3037,13 +3031,13 @@
         <v>551497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1060</v>
@@ -3052,13 +3046,13 @@
         <v>1126807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3120,13 @@
         <v>24239</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>60</v>
@@ -3141,13 +3135,13 @@
         <v>65423</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -3156,13 +3150,13 @@
         <v>89662</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,28 +3171,28 @@
         <v>993708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>876</v>
       </c>
       <c r="I11" s="7">
-        <v>962352</v>
+        <v>962353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -3207,13 +3201,13 @@
         <v>1956060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3240,7 +3234,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027775</v>
+        <v>1027776</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3281,13 +3275,13 @@
         <v>14047</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -3296,13 +3290,13 @@
         <v>36820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -3311,13 +3305,13 @@
         <v>50868</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3326,13 @@
         <v>742491</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -3347,13 +3341,13 @@
         <v>739463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>1347</v>
@@ -3362,13 +3356,13 @@
         <v>1481953</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3466,13 +3460,13 @@
         <v>87834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,13 +3481,13 @@
         <v>923330</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>937</v>
@@ -3502,13 +3496,13 @@
         <v>981538</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>1826</v>
@@ -3517,13 +3511,13 @@
         <v>1904868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3585,13 @@
         <v>71329</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
@@ -3606,13 +3600,13 @@
         <v>206519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>254</v>
@@ -3621,13 +3615,13 @@
         <v>277847</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,13 +3636,13 @@
         <v>3347859</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>3095</v>
@@ -3657,13 +3651,13 @@
         <v>3338615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>6234</v>
@@ -3672,13 +3666,13 @@
         <v>6686475</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,7 +3749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925B9401-1FC9-4C36-9AC9-9D9B922E8947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BC49C6-7FA7-4974-B593-A457D947A3C5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3772,7 +3766,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3879,13 +3873,13 @@
         <v>4108</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -3894,13 +3888,13 @@
         <v>5124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3909,13 +3903,13 @@
         <v>9232</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3924,13 @@
         <v>112438</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>110</v>
@@ -3945,7 +3939,7 @@
         <v>108236</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>235</v>
@@ -4040,7 +4034,7 @@
         <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4049,13 +4043,13 @@
         <v>21586</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
@@ -4064,13 +4058,13 @@
         <v>26233</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4079,13 @@
         <v>553606</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>532</v>
@@ -4100,13 +4094,13 @@
         <v>537893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>135</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="M8" s="7">
         <v>1066</v>
@@ -4115,13 +4109,13 @@
         <v>1091500</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4183,13 @@
         <v>15135</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -4204,13 +4198,13 @@
         <v>40617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -4219,13 +4213,13 @@
         <v>55753</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4234,13 @@
         <v>1007296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H11" s="7">
         <v>941</v>
@@ -4255,13 +4249,13 @@
         <v>1002296</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M11" s="7">
         <v>1876</v>
@@ -4270,13 +4264,13 @@
         <v>2009591</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4338,13 @@
         <v>13250</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4359,13 +4353,13 @@
         <v>29733</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -4374,13 +4368,13 @@
         <v>42984</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4389,13 @@
         <v>746302</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>709</v>
@@ -4410,13 +4404,13 @@
         <v>755278</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>1392</v>
@@ -4425,13 +4419,13 @@
         <v>1501579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4493,13 @@
         <v>8054</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -4514,13 +4508,13 @@
         <v>37498</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M16" s="7">
         <v>40</v>
@@ -4529,13 +4523,13 @@
         <v>45551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4544,13 @@
         <v>929513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -4565,13 +4559,13 @@
         <v>1006281</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>294</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
         <v>1851</v>
@@ -4580,13 +4574,13 @@
         <v>1935795</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4648,13 @@
         <v>45195</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H19" s="7">
         <v>119</v>
@@ -4669,13 +4663,13 @@
         <v>134558</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>165</v>
@@ -4687,10 +4681,10 @@
         <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,10 +4699,10 @@
         <v>3349155</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>305</v>
@@ -4723,10 +4717,10 @@
         <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>307</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="M20" s="7">
         <v>6404</v>
@@ -4818,7 +4812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA99552F-C8F7-4D82-8C58-920CA5FD8BF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F52B20-D71D-4984-9AF5-7078D1941A06}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4948,7 +4942,7 @@
         <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4957,13 +4951,13 @@
         <v>4949</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4972,13 +4966,13 @@
         <v>5409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +4990,7 @@
         <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>136</v>
@@ -5011,10 +5005,10 @@
         <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>349</v>
@@ -5023,10 +5017,10 @@
         <v>226949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>321</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>322</v>
@@ -5115,10 +5109,10 @@
         <v>326</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M7" s="7">
         <v>96</v>
@@ -5130,10 +5124,10 @@
         <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5142,13 @@
         <v>533373</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H8" s="7">
         <v>920</v>
@@ -5163,13 +5157,13 @@
         <v>550817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
         <v>1511</v>
@@ -5181,10 +5175,10 @@
         <v>117</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5246,13 @@
         <v>18241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>85</v>
@@ -5267,13 +5261,13 @@
         <v>51199</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -5282,13 +5276,13 @@
         <v>69440</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5297,7 @@
         <v>1021007</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>333</v>
+        <v>236</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>345</v>
@@ -5336,10 +5330,10 @@
         <v>350</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>21</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5401,13 @@
         <v>12731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5422,13 +5416,13 @@
         <v>32259</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -5437,13 +5431,13 @@
         <v>44990</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5452,13 @@
         <v>714970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
@@ -5473,13 +5467,13 @@
         <v>840544</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>117</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1657</v>
@@ -5488,13 +5482,13 @@
         <v>1555514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>363</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5556,13 @@
         <v>18515</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -5577,13 +5571,13 @@
         <v>80988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M16" s="7">
         <v>139</v>
@@ -5592,13 +5586,13 @@
         <v>99503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>369</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>370</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,10 +5607,10 @@
         <v>946133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>371</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>372</v>
@@ -5646,10 +5640,10 @@
         <v>376</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>377</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>378</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,28 +5711,28 @@
         <v>65876</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>335</v>
       </c>
       <c r="I19" s="7">
-        <v>211539</v>
+        <v>211540</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>416</v>
@@ -5747,13 +5741,13 @@
         <v>277415</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>200</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5762,13 @@
         <v>3317006</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>5023</v>
@@ -5783,28 +5777,28 @@
         <v>3590379</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>8315</v>
       </c>
       <c r="N20" s="7">
-        <v>6907386</v>
+        <v>6907385</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>210</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,7 +5825,7 @@
         <v>5358</v>
       </c>
       <c r="I21" s="7">
-        <v>3801918</v>
+        <v>3801919</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5846,7 +5840,7 @@
         <v>8731</v>
       </c>
       <c r="N21" s="7">
-        <v>7184801</v>
+        <v>7184800</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D773FB5E-07DB-441E-926C-84DEE89EE361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAA2BE03-5722-4A66-B56E-C30E0EA9AB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{28E7CB84-094D-403A-B61B-F1A8450D2071}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{304FA4B2-53BC-444D-8BB4-A59B3E65E4E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="328">
   <si>
     <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,1150 +68,961 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
   </si>
   <si>
     <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicamentos para el reuma en las dos últimas semanas en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +1434,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ABADC3-DC49-4E96-BA0F-C869FCDC92C5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24622A8A-99A0-4611-BCC7-A4C5A48DB6C7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1741,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>3054</v>
+        <v>20352</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1756,10 +1567,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>2637</v>
+        <v>25846</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1771,10 +1582,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7">
-        <v>5691</v>
+        <v>46198</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1792,10 +1603,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>661</v>
       </c>
       <c r="D5" s="7">
-        <v>112304</v>
+        <v>672642</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1807,10 +1618,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>125</v>
+        <v>669</v>
       </c>
       <c r="I5" s="7">
-        <v>110118</v>
+        <v>662505</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1822,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>227</v>
+        <v>1330</v>
       </c>
       <c r="N5" s="7">
-        <v>222422</v>
+        <v>1335147</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1843,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1858,10 +1669,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1873,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1896,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>17298</v>
+        <v>25913</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1911,10 +1722,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>23208</v>
+        <v>45285</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1926,10 +1737,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N7" s="7">
-        <v>40507</v>
+        <v>71198</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1947,10 +1758,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>559</v>
+        <v>871</v>
       </c>
       <c r="D8" s="7">
-        <v>560338</v>
+        <v>935887</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1962,10 +1773,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>544</v>
+        <v>867</v>
       </c>
       <c r="I8" s="7">
-        <v>552388</v>
+        <v>923108</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1977,10 +1788,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1103</v>
+        <v>1738</v>
       </c>
       <c r="N8" s="7">
-        <v>1112725</v>
+        <v>1858995</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1998,10 +1809,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2013,10 +1824,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2028,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2051,10 +1862,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>25913</v>
+        <v>17059</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2066,10 +1877,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>45285</v>
+        <v>41546</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2081,10 +1892,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>71198</v>
+        <v>58606</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2102,10 +1913,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>871</v>
+        <v>624</v>
       </c>
       <c r="D11" s="7">
-        <v>935887</v>
+        <v>661450</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2117,10 +1928,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>867</v>
+        <v>654</v>
       </c>
       <c r="I11" s="7">
-        <v>923108</v>
+        <v>642295</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2132,10 +1943,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1738</v>
+        <v>1278</v>
       </c>
       <c r="N11" s="7">
-        <v>1858995</v>
+        <v>1303744</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2153,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2168,10 +1979,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2183,10 +1994,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2206,10 +2017,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D13" s="7">
-        <v>17059</v>
+        <v>31969</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2221,10 +2032,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>41546</v>
+        <v>58855</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2236,19 +2047,19 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="N13" s="7">
-        <v>58606</v>
+        <v>90824</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,49 +2068,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>624</v>
+        <v>959</v>
       </c>
       <c r="D14" s="7">
-        <v>661450</v>
+        <v>910253</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>943</v>
+      </c>
+      <c r="I14" s="7">
+        <v>979757</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>654</v>
-      </c>
-      <c r="I14" s="7">
-        <v>642295</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1902</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1890010</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1278</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1303744</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2323,10 +2134,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2338,10 +2149,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2355,55 +2166,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>31969</v>
+        <v>95292</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>164</v>
+      </c>
+      <c r="I16" s="7">
+        <v>171532</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>54</v>
-      </c>
-      <c r="I16" s="7">
-        <v>58855</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>262</v>
+      </c>
+      <c r="N16" s="7">
+        <v>266824</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>89</v>
-      </c>
-      <c r="N16" s="7">
-        <v>90824</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,49 +2223,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>959</v>
+        <v>3115</v>
       </c>
       <c r="D17" s="7">
-        <v>910253</v>
+        <v>3180233</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>3133</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3207665</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>943</v>
-      </c>
-      <c r="I17" s="7">
-        <v>979757</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6248</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6387898</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>1902</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1890010</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2478,10 +2289,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2493,10 +2304,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2509,171 +2320,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>98</v>
-      </c>
-      <c r="D19" s="7">
-        <v>95292</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>164</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171532</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>262</v>
-      </c>
-      <c r="N19" s="7">
-        <v>266824</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3115</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3180233</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3133</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3207666</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6248</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6387898</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2686,8 +2341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4357AB-161F-4DFE-9017-D4F55A650AEC}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4AF31E-165B-489E-9F07-D8D49B237B88}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2703,7 +2358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2804,49 +2459,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>1931</v>
+        <v>12434</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>8140</v>
+        <v>37050</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>10070</v>
+        <v>49484</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,49 +2510,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>659</v>
+      </c>
+      <c r="D5" s="7">
+        <v>688330</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="7">
+        <v>612</v>
+      </c>
+      <c r="I5" s="7">
+        <v>655262</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="7">
-        <v>113019</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="7">
-        <v>92</v>
-      </c>
-      <c r="I5" s="7">
-        <v>103765</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="M5" s="7">
-        <v>211</v>
+        <v>1271</v>
       </c>
       <c r="N5" s="7">
-        <v>216785</v>
+        <v>1343591</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,10 +2561,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2921,10 +2576,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>692312</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2936,10 +2591,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1317</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1393075</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2959,49 +2614,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>10503</v>
+        <v>24239</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I7" s="7">
-        <v>28910</v>
+        <v>65423</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>39413</v>
+        <v>89662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,49 +2665,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>540</v>
+        <v>914</v>
       </c>
       <c r="D8" s="7">
-        <v>575311</v>
+        <v>993708</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>520</v>
+        <v>876</v>
       </c>
       <c r="I8" s="7">
-        <v>551497</v>
+        <v>962352</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>1060</v>
+        <v>1790</v>
       </c>
       <c r="N8" s="7">
-        <v>1126807</v>
+        <v>1956061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3076,10 +2731,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>580407</v>
+        <v>1027775</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3091,10 +2746,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1097</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="7">
-        <v>1166220</v>
+        <v>2045723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3114,49 +2769,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>24239</v>
+        <v>14047</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="I10" s="7">
-        <v>65423</v>
+        <v>36820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="N10" s="7">
-        <v>89662</v>
+        <v>50868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,49 +2820,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>914</v>
+        <v>677</v>
       </c>
       <c r="D11" s="7">
-        <v>993708</v>
+        <v>742491</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>876</v>
+        <v>670</v>
       </c>
       <c r="I11" s="7">
-        <v>962353</v>
+        <v>739463</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
-        <v>1790</v>
+        <v>1347</v>
       </c>
       <c r="N11" s="7">
-        <v>1956060</v>
+        <v>1481953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,10 +2871,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3231,10 +2886,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3246,10 +2901,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1872</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2045722</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3269,49 +2924,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>14047</v>
+        <v>20609</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H13" s="7">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>36820</v>
+        <v>67225</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="M13" s="7">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>50868</v>
+        <v>87834</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,49 +2975,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>677</v>
+        <v>889</v>
       </c>
       <c r="D14" s="7">
-        <v>742491</v>
+        <v>923330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
-        <v>670</v>
+        <v>937</v>
       </c>
       <c r="I14" s="7">
-        <v>739463</v>
+        <v>981538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
-        <v>1347</v>
+        <v>1826</v>
       </c>
       <c r="N14" s="7">
-        <v>1481953</v>
+        <v>1904869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,10 +3026,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3386,10 +3041,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3401,10 +3056,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1907</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1992703</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3418,55 +3073,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>20609</v>
+        <v>71329</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
-        <v>63</v>
+        <v>191</v>
       </c>
       <c r="I16" s="7">
-        <v>67225</v>
+        <v>206519</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>254</v>
       </c>
       <c r="N16" s="7">
-        <v>87834</v>
+        <v>277847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,49 +3130,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>889</v>
+        <v>3139</v>
       </c>
       <c r="D17" s="7">
-        <v>923330</v>
+        <v>3347859</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H17" s="7">
-        <v>937</v>
+        <v>3095</v>
       </c>
       <c r="I17" s="7">
-        <v>981538</v>
+        <v>3338615</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
-        <v>1826</v>
+        <v>6234</v>
       </c>
       <c r="N17" s="7">
-        <v>1904868</v>
+        <v>6686475</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3202</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3419188</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3541,10 +3196,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3286</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3545134</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3556,10 +3211,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1907</v>
+        <v>6488</v>
       </c>
       <c r="N18" s="7">
-        <v>1992702</v>
+        <v>6964322</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3572,171 +3227,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>63</v>
-      </c>
-      <c r="D19" s="7">
-        <v>71329</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="7">
-        <v>191</v>
-      </c>
-      <c r="I19" s="7">
-        <v>206519</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>254</v>
-      </c>
-      <c r="N19" s="7">
-        <v>277847</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3139</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3347859</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3095</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3338615</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6234</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6686475</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3202</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3419188</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3286</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3545134</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6488</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6964322</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3749,8 +3248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BC49C6-7FA7-4974-B593-A457D947A3C5}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4B730F-BE1B-4C4C-A00B-40CD1D62ED73}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3766,7 +3265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3867,49 +3366,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>4108</v>
+        <v>8756</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>107</v>
+        <v>185</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>5124</v>
+        <v>26710</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>9232</v>
+        <v>35465</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,49 +3417,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>109</v>
+        <v>643</v>
       </c>
       <c r="D5" s="7">
-        <v>112438</v>
+        <v>666044</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>115</v>
+        <v>194</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
-        <v>110</v>
+        <v>642</v>
       </c>
       <c r="I5" s="7">
-        <v>108236</v>
+        <v>646129</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1285</v>
       </c>
       <c r="N5" s="7">
-        <v>220674</v>
+        <v>1312174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3984,10 +3483,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3999,10 +3498,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4022,49 +3521,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>4648</v>
+        <v>15135</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I7" s="7">
-        <v>21586</v>
+        <v>40617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>26233</v>
+        <v>55753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,49 +3572,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>534</v>
+        <v>935</v>
       </c>
       <c r="D8" s="7">
-        <v>553606</v>
+        <v>1007296</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="H8" s="7">
-        <v>532</v>
+        <v>941</v>
       </c>
       <c r="I8" s="7">
-        <v>537893</v>
+        <v>1002296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="M8" s="7">
-        <v>1066</v>
+        <v>1876</v>
       </c>
       <c r="N8" s="7">
-        <v>1091500</v>
+        <v>2009591</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4139,10 +3638,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4154,10 +3653,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4177,49 +3676,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>15135</v>
+        <v>13250</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>40617</v>
+        <v>29733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="M10" s="7">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="N10" s="7">
-        <v>55753</v>
+        <v>42984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,49 +3727,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>935</v>
+        <v>683</v>
       </c>
       <c r="D11" s="7">
-        <v>1007296</v>
+        <v>746302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
-        <v>941</v>
+        <v>709</v>
       </c>
       <c r="I11" s="7">
-        <v>1002296</v>
+        <v>755278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
-        <v>1876</v>
+        <v>1392</v>
       </c>
       <c r="N11" s="7">
-        <v>2009591</v>
+        <v>1501579</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,10 +3778,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4294,10 +3793,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4309,10 +3808,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4332,49 +3831,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>13250</v>
+        <v>8054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>29733</v>
+        <v>37498</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>42984</v>
+        <v>45551</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4383,49 +3882,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>683</v>
+        <v>924</v>
       </c>
       <c r="D14" s="7">
-        <v>746302</v>
+        <v>929513</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="H14" s="7">
-        <v>709</v>
+        <v>927</v>
       </c>
       <c r="I14" s="7">
-        <v>755278</v>
+        <v>1006281</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>1392</v>
+        <v>1851</v>
       </c>
       <c r="N14" s="7">
-        <v>1501579</v>
+        <v>1935795</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4434,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4449,10 +3948,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4464,10 +3963,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4481,55 +3980,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>8054</v>
+        <v>45195</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I16" s="7">
-        <v>37498</v>
+        <v>134558</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="N16" s="7">
-        <v>45551</v>
+        <v>179753</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>125</v>
+        <v>257</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4538,49 +4037,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>924</v>
+        <v>3185</v>
       </c>
       <c r="D17" s="7">
-        <v>929513</v>
+        <v>3349155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="H17" s="7">
-        <v>927</v>
+        <v>3219</v>
       </c>
       <c r="I17" s="7">
-        <v>1006281</v>
+        <v>3409984</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
-        <v>1851</v>
+        <v>6404</v>
       </c>
       <c r="N17" s="7">
-        <v>1935795</v>
+        <v>6759139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4604,10 +4103,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4619,10 +4118,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4635,171 +4134,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>46</v>
-      </c>
-      <c r="D19" s="7">
-        <v>45195</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H19" s="7">
-        <v>119</v>
-      </c>
-      <c r="I19" s="7">
-        <v>134558</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M19" s="7">
-        <v>165</v>
-      </c>
-      <c r="N19" s="7">
-        <v>179753</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3185</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3349155</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3219</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3409984</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6404</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6759139</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4812,8 +4155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26F52B20-D71D-4984-9AF5-7078D1941A06}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081BCDF5-D085-4496-A5A8-279365DAD234}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4829,7 +4172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4930,49 +4273,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>460</v>
+        <v>15391</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="I4" s="7">
-        <v>4949</v>
+        <v>42454</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="N4" s="7">
-        <v>5409</v>
+        <v>57845</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,49 +4324,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>117</v>
+        <v>708</v>
       </c>
       <c r="D5" s="7">
-        <v>101522</v>
+        <v>619560</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="H5" s="7">
-        <v>232</v>
+        <v>1152</v>
       </c>
       <c r="I5" s="7">
-        <v>125427</v>
+        <v>632968</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
-        <v>349</v>
+        <v>1860</v>
       </c>
       <c r="N5" s="7">
-        <v>226949</v>
+        <v>1252528</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>65</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634951</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5047,10 +4390,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130376</v>
+        <v>675422</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5062,10 +4405,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232358</v>
+        <v>1310373</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5085,49 +4428,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>15929</v>
+        <v>16617</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I7" s="7">
-        <v>42145</v>
+        <v>45438</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="N7" s="7">
-        <v>58074</v>
+        <v>62055</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,49 +4479,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>591</v>
+        <v>942</v>
       </c>
       <c r="D8" s="7">
-        <v>533373</v>
+        <v>1176247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="H8" s="7">
-        <v>920</v>
+        <v>1431</v>
       </c>
       <c r="I8" s="7">
-        <v>550817</v>
+        <v>912668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>333</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>334</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
-        <v>1511</v>
+        <v>2373</v>
       </c>
       <c r="N8" s="7">
-        <v>1084190</v>
+        <v>2088916</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549302</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5202,10 +4545,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5217,10 +4560,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142264</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5240,49 +4583,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>18241</v>
+        <v>11619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>107</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>338</v>
+        <v>294</v>
       </c>
       <c r="H10" s="7">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>51199</v>
+        <v>28759</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>297</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>69440</v>
+        <v>40378</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,49 +4634,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>942</v>
+        <v>661</v>
       </c>
       <c r="D11" s="7">
-        <v>1021007</v>
+        <v>692065</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>116</v>
       </c>
       <c r="H11" s="7">
-        <v>1431</v>
+        <v>996</v>
       </c>
       <c r="I11" s="7">
-        <v>1008275</v>
+        <v>903166</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="M11" s="7">
-        <v>2373</v>
+        <v>1657</v>
       </c>
       <c r="N11" s="7">
-        <v>2029282</v>
+        <v>1595230</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,10 +4685,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5357,10 +4700,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>931925</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5372,10 +4715,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1720</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1635608</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5395,49 +4738,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>12731</v>
+        <v>16982</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="I13" s="7">
-        <v>32259</v>
+        <v>69682</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M13" s="7">
+        <v>139</v>
+      </c>
+      <c r="N13" s="7">
+        <v>86664</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M13" s="7">
-        <v>63</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44990</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,49 +4789,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>661</v>
+        <v>981</v>
       </c>
       <c r="D14" s="7">
-        <v>714970</v>
+        <v>909133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>233</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="H14" s="7">
-        <v>996</v>
+        <v>1444</v>
       </c>
       <c r="I14" s="7">
-        <v>840544</v>
+        <v>1021692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
-        <v>1657</v>
+        <v>2425</v>
       </c>
       <c r="N14" s="7">
-        <v>1555514</v>
+        <v>1930825</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926115</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5512,10 +4855,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1045</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>872803</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5527,10 +4870,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1720</v>
+        <v>2564</v>
       </c>
       <c r="N15" s="7">
-        <v>1600504</v>
+        <v>2017489</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5544,55 +4887,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>18515</v>
+        <v>60609</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>365</v>
+        <v>33</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
-        <v>115</v>
+        <v>335</v>
       </c>
       <c r="I16" s="7">
-        <v>80988</v>
+        <v>186333</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
-        <v>139</v>
+        <v>416</v>
       </c>
       <c r="N16" s="7">
-        <v>99503</v>
+        <v>246942</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>370</v>
+        <v>129</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,49 +4944,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>981</v>
+        <v>3292</v>
       </c>
       <c r="D17" s="7">
-        <v>946133</v>
+        <v>3397006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>371</v>
+        <v>43</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="H17" s="7">
-        <v>1444</v>
+        <v>5023</v>
       </c>
       <c r="I17" s="7">
-        <v>1065315</v>
+        <v>3470494</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="M17" s="7">
-        <v>2425</v>
+        <v>8315</v>
       </c>
       <c r="N17" s="7">
-        <v>2011448</v>
+        <v>6867499</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>376</v>
+        <v>139</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1005</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>964648</v>
+        <v>3457615</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5667,10 +5010,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5358</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3656827</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5682,10 +5025,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2564</v>
+        <v>8731</v>
       </c>
       <c r="N18" s="7">
-        <v>2110951</v>
+        <v>7114441</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5698,171 +5041,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>81</v>
-      </c>
-      <c r="D19" s="7">
-        <v>65876</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="H19" s="7">
-        <v>335</v>
-      </c>
-      <c r="I19" s="7">
-        <v>211540</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="M19" s="7">
-        <v>416</v>
-      </c>
-      <c r="N19" s="7">
-        <v>277415</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3292</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3317006</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5023</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3590379</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8315</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6907385</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382882</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5358</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801919</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8731</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7184800</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
